--- a/summaries/trials/Dept of Health/variantSummary.xlsx
+++ b/summaries/trials/Dept of Health/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -197,6 +197,12 @@
     <t xml:space="preserve">S2500F</t>
   </si>
   <si>
+    <t xml:space="preserve">G8083A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2606I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11102T</t>
   </si>
   <si>
@@ -206,6 +212,9 @@
     <t xml:space="preserve">C12073T</t>
   </si>
   <si>
+    <t xml:space="preserve">C14805T</t>
+  </si>
+  <si>
     <t xml:space="preserve">T19584C</t>
   </si>
   <si>
@@ -245,6 +254,9 @@
     <t xml:space="preserve">T224I</t>
   </si>
   <si>
+    <t xml:space="preserve">C1912T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G2095T</t>
   </si>
   <si>
@@ -299,12 +311,6 @@
     <t xml:space="preserve">C7735T</t>
   </si>
   <si>
-    <t xml:space="preserve">G8083A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2606I</t>
-  </si>
-  <si>
     <t xml:space="preserve">G9928T</t>
   </si>
   <si>
@@ -338,9 +344,6 @@
     <t xml:space="preserve">M4241V</t>
   </si>
   <si>
-    <t xml:space="preserve">C14805T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C16173T</t>
   </si>
   <si>
@@ -500,9 +503,6 @@
     <t xml:space="preserve">K515N</t>
   </si>
   <si>
-    <t xml:space="preserve">C1912T</t>
-  </si>
-  <si>
     <t xml:space="preserve">G1946T</t>
   </si>
   <si>
@@ -1070,6 +1070,9 @@
     <t xml:space="preserve">T14I</t>
   </si>
   <si>
+    <t xml:space="preserve">T27484C</t>
+  </si>
+  <si>
     <t xml:space="preserve">G27890T</t>
   </si>
   <si>
@@ -1137,6 +1140,9 @@
   </si>
   <si>
     <t xml:space="preserve">C29200T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A29209C</t>
   </si>
   <si>
     <t xml:space="preserve">C29362T</t>
@@ -1526,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -1543,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -1560,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1577,7 +1583,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1594,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1611,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1628,7 +1634,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1815,7 +1821,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1832,7 +1838,7 @@
         <v>41</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1849,7 +1855,7 @@
         <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1866,7 +1872,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1883,7 +1889,7 @@
         <v>47</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1900,7 +1906,7 @@
         <v>49</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1917,7 +1923,7 @@
         <v>51</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1934,7 +1940,7 @@
         <v>53</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1951,7 +1957,7 @@
         <v>55</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2007,7 +2013,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11102</v>
+        <v>8083</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -2024,7 +2030,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12073</v>
+        <v>11102</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -2033,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
@@ -2041,10 +2047,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>19584</v>
+        <v>12073</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2058,10 +2064,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>19875</v>
+        <v>14805</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -2075,13 +2081,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>27923</v>
+        <v>19584</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -2092,16 +2098,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>28881</v>
+        <v>19875</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
@@ -2109,16 +2115,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>28882</v>
+        <v>27923</v>
       </c>
       <c r="B37" t="s">
         <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
         <v>3</v>
@@ -2126,7 +2132,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>28883</v>
+        <v>28881</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
@@ -2143,7 +2149,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>28887</v>
+        <v>28882</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
@@ -2152,7 +2158,7 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E39" t="n">
         <v>3</v>
@@ -2160,41 +2166,41 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>527</v>
+        <v>28883</v>
       </c>
       <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
         <v>74</v>
       </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>936</v>
+        <v>28887</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>76</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2095</v>
+        <v>527</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
@@ -2211,7 +2217,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2342</v>
+        <v>936</v>
       </c>
       <c r="B43" t="s">
         <v>78</v>
@@ -2228,7 +2234,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2516</v>
+        <v>1912</v>
       </c>
       <c r="B44" t="s">
         <v>80</v>
@@ -2237,7 +2243,7 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
@@ -2245,16 +2251,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3259</v>
+        <v>2095</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
@@ -2262,16 +2268,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3418</v>
+        <v>2342</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
@@ -2279,16 +2285,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3510</v>
+        <v>2516</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E47" t="n">
         <v>2</v>
@@ -2296,16 +2302,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3587</v>
+        <v>3259</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -2313,16 +2319,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4636</v>
+        <v>3418</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E49" t="n">
         <v>2</v>
@@ -2330,16 +2336,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5999</v>
+        <v>3510</v>
       </c>
       <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" t="s">
-        <v>92</v>
       </c>
       <c r="E50" t="n">
         <v>2</v>
@@ -2347,16 +2353,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7420</v>
+        <v>3587</v>
       </c>
       <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
       </c>
       <c r="E51" t="n">
         <v>2</v>
@@ -2364,7 +2370,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7735</v>
+        <v>4636</v>
       </c>
       <c r="B52" t="s">
         <v>94</v>
@@ -2381,7 +2387,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8083</v>
+        <v>5999</v>
       </c>
       <c r="B53" t="s">
         <v>95</v>
@@ -2398,7 +2404,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9928</v>
+        <v>7420</v>
       </c>
       <c r="B54" t="s">
         <v>97</v>
@@ -2407,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -2415,16 +2421,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10323</v>
+        <v>7735</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
         <v>2</v>
@@ -2432,16 +2438,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10798</v>
+        <v>9928</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E56" t="n">
         <v>2</v>
@@ -2449,16 +2455,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11591</v>
+        <v>10323</v>
       </c>
       <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
         <v>102</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" t="s">
-        <v>103</v>
       </c>
       <c r="E57" t="n">
         <v>2</v>
@@ -2466,10 +2472,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11747</v>
+        <v>10798</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -2483,16 +2489,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11866</v>
+        <v>11591</v>
       </c>
       <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
         <v>105</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" t="s">
-        <v>10</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
@@ -2500,7 +2506,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12986</v>
+        <v>11747</v>
       </c>
       <c r="B60" t="s">
         <v>106</v>
@@ -2509,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
@@ -2517,10 +2523,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>14805</v>
+        <v>11866</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -2534,16 +2540,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>16173</v>
+        <v>12986</v>
       </c>
       <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
         <v>109</v>
-      </c>
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" t="s">
-        <v>10</v>
       </c>
       <c r="E62" t="n">
         <v>2</v>
@@ -2551,7 +2557,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>16917</v>
+        <v>16173</v>
       </c>
       <c r="B63" t="s">
         <v>110</v>
@@ -2568,7 +2574,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>17014</v>
+        <v>16917</v>
       </c>
       <c r="B64" t="s">
         <v>111</v>
@@ -2577,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -2585,16 +2591,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>17122</v>
+        <v>17014</v>
       </c>
       <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
         <v>113</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
-        <v>114</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -2602,16 +2608,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>18318</v>
+        <v>17122</v>
       </c>
       <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
         <v>115</v>
-      </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
-        <v>10</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -2619,7 +2625,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>18348</v>
+        <v>18318</v>
       </c>
       <c r="B67" t="s">
         <v>116</v>
@@ -2636,7 +2642,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>18693</v>
+        <v>18348</v>
       </c>
       <c r="B68" t="s">
         <v>117</v>
@@ -2653,7 +2659,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>19086</v>
+        <v>18693</v>
       </c>
       <c r="B69" t="s">
         <v>118</v>
@@ -2662,7 +2668,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -2670,16 +2676,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>21575</v>
+        <v>19086</v>
       </c>
       <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
         <v>120</v>
-      </c>
-      <c r="C70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" t="s">
-        <v>121</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -2687,16 +2693,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21600</v>
+        <v>21575</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
@@ -2704,16 +2710,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>21974</v>
+        <v>21600</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -2721,16 +2727,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>22018</v>
+        <v>21974</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -2738,16 +2744,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>22917</v>
+        <v>22018</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
@@ -2755,16 +2761,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>23593</v>
+        <v>22917</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -2772,16 +2778,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>24094</v>
+        <v>23593</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -2789,7 +2795,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>24378</v>
+        <v>24094</v>
       </c>
       <c r="B77" t="s">
         <v>133</v>
@@ -2798,7 +2804,7 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -2806,16 +2812,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>25577</v>
+        <v>24378</v>
       </c>
       <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
         <v>135</v>
-      </c>
-      <c r="C78" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" t="s">
-        <v>136</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -2823,16 +2829,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>26069</v>
+        <v>25577</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s">
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -2840,16 +2846,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>26459</v>
+        <v>26069</v>
       </c>
       <c r="B80" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
         <v>139</v>
-      </c>
-      <c r="C80" t="s">
-        <v>140</v>
-      </c>
-      <c r="D80" t="s">
-        <v>141</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
@@ -2857,16 +2863,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>26681</v>
+        <v>26459</v>
       </c>
       <c r="B81" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" t="s">
         <v>142</v>
-      </c>
-      <c r="C81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D81" t="s">
-        <v>10</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -2874,13 +2880,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>27074</v>
+        <v>26681</v>
       </c>
       <c r="B82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" t="s">
         <v>144</v>
-      </c>
-      <c r="C82" t="s">
-        <v>143</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -2891,16 +2897,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>27707</v>
+        <v>27074</v>
       </c>
       <c r="B83" t="s">
         <v>145</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -2908,16 +2914,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>28272</v>
+        <v>27707</v>
       </c>
       <c r="B84" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" t="s">
         <v>148</v>
-      </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -2925,16 +2931,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>28975</v>
+        <v>28272</v>
       </c>
       <c r="B85" t="s">
         <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -2942,16 +2948,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>29400</v>
+        <v>28975</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -2959,16 +2965,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>29405</v>
+        <v>29400</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
         <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -2976,16 +2982,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>29422</v>
+        <v>29405</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" t="s">
         <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -2993,16 +2999,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>29747</v>
+        <v>29422</v>
       </c>
       <c r="B89" t="s">
         <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -3010,7 +3016,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>255</v>
+        <v>29747</v>
       </c>
       <c r="B90" t="s">
         <v>157</v>
@@ -3022,21 +3028,21 @@
         <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>832</v>
+        <v>255</v>
       </c>
       <c r="B91" t="s">
         <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -3044,7 +3050,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>913</v>
+        <v>832</v>
       </c>
       <c r="B92" t="s">
         <v>159</v>
@@ -3061,7 +3067,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1810</v>
+        <v>913</v>
       </c>
       <c r="B93" t="s">
         <v>160</v>
@@ -3070,7 +3076,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -3078,16 +3084,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1912</v>
+        <v>1810</v>
       </c>
       <c r="B94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
         <v>162</v>
-      </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" t="s">
-        <v>10</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -4988,7 +4994,7 @@
         <v>340</v>
       </c>
       <c r="C206" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D206" t="s">
         <v>10</v>
@@ -5005,7 +5011,7 @@
         <v>341</v>
       </c>
       <c r="C207" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D207" t="s">
         <v>342</v>
@@ -5022,7 +5028,7 @@
         <v>343</v>
       </c>
       <c r="C208" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D208" t="s">
         <v>344</v>
@@ -5039,7 +5045,7 @@
         <v>345</v>
       </c>
       <c r="C209" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D209" t="s">
         <v>346</v>
@@ -5056,7 +5062,7 @@
         <v>347</v>
       </c>
       <c r="C210" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D210" t="s">
         <v>10</v>
@@ -5073,7 +5079,7 @@
         <v>348</v>
       </c>
       <c r="C211" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D211" t="s">
         <v>10</v>
@@ -5090,7 +5096,7 @@
         <v>349</v>
       </c>
       <c r="C212" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D212" t="s">
         <v>10</v>
@@ -5107,7 +5113,7 @@
         <v>350</v>
       </c>
       <c r="C213" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D213" t="s">
         <v>351</v>
@@ -5118,16 +5124,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>27890</v>
+        <v>27484</v>
       </c>
       <c r="B214" t="s">
         <v>352</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
@@ -5135,16 +5141,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>27972</v>
+        <v>27890</v>
       </c>
       <c r="B215" t="s">
         <v>353</v>
       </c>
       <c r="C215" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>354</v>
+        <v>7</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -5152,16 +5158,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>27998</v>
+        <v>27972</v>
       </c>
       <c r="B216" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C216" t="s">
         <v>19</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>355</v>
       </c>
       <c r="E216" t="n">
         <v>1</v>
@@ -5169,7 +5175,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>28048</v>
+        <v>27998</v>
       </c>
       <c r="B217" t="s">
         <v>356</v>
@@ -5178,7 +5184,7 @@
         <v>19</v>
       </c>
       <c r="D217" t="s">
-        <v>357</v>
+        <v>10</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
@@ -5186,16 +5192,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>28087</v>
+        <v>28048</v>
       </c>
       <c r="B218" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C218" t="s">
         <v>19</v>
       </c>
       <c r="D218" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -5203,16 +5209,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>28102</v>
+        <v>28087</v>
       </c>
       <c r="B219" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C219" t="s">
         <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E219" t="n">
         <v>1</v>
@@ -5220,16 +5226,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>28111</v>
+        <v>28102</v>
       </c>
       <c r="B220" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C220" t="s">
         <v>19</v>
       </c>
       <c r="D220" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -5237,16 +5243,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>28115</v>
+        <v>28111</v>
       </c>
       <c r="B221" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C221" t="s">
         <v>19</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>364</v>
       </c>
       <c r="E221" t="n">
         <v>1</v>
@@ -5254,16 +5260,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>28271</v>
+        <v>28115</v>
       </c>
       <c r="B222" t="s">
         <v>365</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>366</v>
+        <v>10</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -5271,16 +5277,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>28280</v>
+        <v>28271</v>
       </c>
       <c r="B223" t="s">
+        <v>366</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
         <v>367</v>
-      </c>
-      <c r="C223" t="s">
-        <v>22</v>
-      </c>
-      <c r="D223" t="s">
-        <v>368</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -5288,16 +5294,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>28281</v>
+        <v>28280</v>
       </c>
       <c r="B224" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C224" t="s">
         <v>22</v>
       </c>
       <c r="D224" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -5305,7 +5311,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>28282</v>
+        <v>28281</v>
       </c>
       <c r="B225" t="s">
         <v>370</v>
@@ -5314,7 +5320,7 @@
         <v>22</v>
       </c>
       <c r="D225" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
@@ -5322,7 +5328,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>28957</v>
+        <v>28282</v>
       </c>
       <c r="B226" t="s">
         <v>371</v>
@@ -5331,7 +5337,7 @@
         <v>22</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>369</v>
       </c>
       <c r="E226" t="n">
         <v>1</v>
@@ -5339,7 +5345,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>28977</v>
+        <v>28957</v>
       </c>
       <c r="B227" t="s">
         <v>372</v>
@@ -5348,7 +5354,7 @@
         <v>22</v>
       </c>
       <c r="D227" t="s">
-        <v>373</v>
+        <v>10</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -5356,16 +5362,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>29200</v>
+        <v>28977</v>
       </c>
       <c r="B228" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C228" t="s">
         <v>22</v>
       </c>
       <c r="D228" t="s">
-        <v>10</v>
+        <v>374</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -5373,7 +5379,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>29362</v>
+        <v>29200</v>
       </c>
       <c r="B229" t="s">
         <v>375</v>
@@ -5390,7 +5396,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>29402</v>
+        <v>29209</v>
       </c>
       <c r="B230" t="s">
         <v>376</v>
@@ -5399,7 +5405,7 @@
         <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5407,16 +5413,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>29627</v>
+        <v>29362</v>
       </c>
       <c r="B231" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C231" t="s">
-        <v>379</v>
+        <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
@@ -5424,16 +5430,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>29686</v>
+        <v>29402</v>
       </c>
       <c r="B232" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>379</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
@@ -5441,16 +5447,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>29769</v>
+        <v>29627</v>
       </c>
       <c r="B233" t="s">
+        <v>380</v>
+      </c>
+      <c r="C233" t="s">
+        <v>381</v>
+      </c>
+      <c r="D233" t="s">
         <v>382</v>
-      </c>
-      <c r="C233" t="s">
-        <v>6</v>
-      </c>
-      <c r="D233" t="s">
-        <v>366</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -5458,7 +5464,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>29825</v>
+        <v>29686</v>
       </c>
       <c r="B234" t="s">
         <v>383</v>
@@ -5470,6 +5476,40 @@
         <v>7</v>
       </c>
       <c r="E234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>29769</v>
+      </c>
+      <c r="B235" t="s">
+        <v>384</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>367</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>29825</v>
+      </c>
+      <c r="B236" t="s">
+        <v>385</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" t="n">
         <v>1</v>
       </c>
     </row>

--- a/summaries/trials/Dept of Health/variantSummary.xlsx
+++ b/summaries/trials/Dept of Health/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="568">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -29,6 +29,42 @@
     <t xml:space="preserve">experiments</t>
   </si>
   <si>
+    <t xml:space="preserve">T8782C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf1ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14408T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P314L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T18060C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A23403G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D614G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28144T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S84L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C241T</t>
   </si>
   <si>
@@ -41,40 +77,10 @@
     <t xml:space="preserve">C3037T</t>
   </si>
   <si>
-    <t xml:space="preserve">orf1ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T8782C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14408T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P314L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T18060C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A23403G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D614G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28144T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S84L</t>
+    <t xml:space="preserve">C23604A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P681H</t>
   </si>
   <si>
     <t xml:space="preserve">C28854T</t>
@@ -86,10 +92,13 @@
     <t xml:space="preserve">S194L</t>
   </si>
   <si>
-    <t xml:space="preserve">C23604A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P681H</t>
+    <t xml:space="preserve">G29266A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1578C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V438A</t>
   </si>
   <si>
     <t xml:space="preserve">G6618A</t>
@@ -110,15 +119,6 @@
     <t xml:space="preserve">T24076C</t>
   </si>
   <si>
-    <t xml:space="preserve">G29266A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1578C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V438A</t>
-  </si>
-  <si>
     <t xml:space="preserve">A20268G</t>
   </si>
   <si>
@@ -140,6 +140,24 @@
     <t xml:space="preserve">Q57H</t>
   </si>
   <si>
+    <t xml:space="preserve">C27964T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAAAA28271delA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28869T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P199L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10319T</t>
   </si>
   <si>
@@ -164,22 +182,139 @@
     <t xml:space="preserve">G172V</t>
   </si>
   <si>
-    <t xml:space="preserve">C27964T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S24L</t>
-  </si>
-  <si>
     <t xml:space="preserve">C28472T</t>
   </si>
   <si>
     <t xml:space="preserve">P67S</t>
   </si>
   <si>
-    <t xml:space="preserve">C28869T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P199L</t>
+    <t xml:space="preserve">C27972T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28048T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R52I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28881A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R203K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28882A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28883C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G204R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8083A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2606I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTCTGGTTTT11288delTCTGGTTTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14805T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A23063T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N501Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23709T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T716I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G24914C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1118H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27923T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28887T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T205I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C913T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5388A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1708D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11102T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3613S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12153T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3963V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19875T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T24506G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S982A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A28111G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y73C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28280C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A28281T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T28282A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28975A, G28975T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M234I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C936T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T224I</t>
   </si>
   <si>
     <t xml:space="preserve">G1408A</t>
@@ -191,75 +326,138 @@
     <t xml:space="preserve">W630C</t>
   </si>
   <si>
+    <t xml:space="preserve">G3259T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q998H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3267T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1001I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5986T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T6954C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2230T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G7042T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2259I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C7764T</t>
   </si>
   <si>
     <t xml:space="preserve">S2500F</t>
   </si>
   <si>
-    <t xml:space="preserve">G8083A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2606I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11102T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3613S</t>
+    <t xml:space="preserve">C7860T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2532I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T8929C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11344T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11591T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3776F</t>
   </si>
   <si>
     <t xml:space="preserve">C12073T</t>
   </si>
   <si>
-    <t xml:space="preserve">C14805T</t>
+    <t xml:space="preserve">G17122T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1219S</t>
   </si>
   <si>
     <t xml:space="preserve">T19584C</t>
   </si>
   <si>
-    <t xml:space="preserve">C19875T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27923T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28881A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R203K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28882A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28883C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G204R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28887T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T205I</t>
+    <t xml:space="preserve">C21575T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTATTA21991delTTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T22917G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L452R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23271A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A570D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G23593C, G23593T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q677H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A26069G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E226G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26885T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A28095T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K68*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29402T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D377Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29747T</t>
   </si>
   <si>
     <t xml:space="preserve">C527T</t>
   </si>
   <si>
-    <t xml:space="preserve">C936T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T224I</t>
-  </si>
-  <si>
     <t xml:space="preserve">C1912T</t>
   </si>
   <si>
     <t xml:space="preserve">G2095T</t>
   </si>
   <si>
+    <t xml:space="preserve">C2110T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A2342G</t>
   </si>
   <si>
@@ -272,12 +470,6 @@
     <t xml:space="preserve">V751L</t>
   </si>
   <si>
-    <t xml:space="preserve">G3259T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q998H</t>
-  </si>
-  <si>
     <t xml:space="preserve">G3418T</t>
   </si>
   <si>
@@ -305,12 +497,27 @@
     <t xml:space="preserve">I1912V</t>
   </si>
   <si>
+    <t xml:space="preserve">C6525T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2087I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G7393T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C7420T</t>
   </si>
   <si>
     <t xml:space="preserve">C7735T</t>
   </si>
   <si>
+    <t xml:space="preserve">T9867C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3201P</t>
+  </si>
+  <si>
     <t xml:space="preserve">G9928T</t>
   </si>
   <si>
@@ -326,10 +533,10 @@
     <t xml:space="preserve">C10798T</t>
   </si>
   <si>
-    <t xml:space="preserve">C11591T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3776F</t>
+    <t xml:space="preserve">C11514T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3750I</t>
   </si>
   <si>
     <t xml:space="preserve">C11747T</t>
@@ -344,9 +551,24 @@
     <t xml:space="preserve">M4241V</t>
   </si>
   <si>
+    <t xml:space="preserve">C14120T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P218L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14676T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15279T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C16173T</t>
   </si>
   <si>
+    <t xml:space="preserve">T16176C</t>
+  </si>
+  <si>
     <t xml:space="preserve">G16917T</t>
   </si>
   <si>
@@ -356,18 +578,15 @@
     <t xml:space="preserve">D1183Y</t>
   </si>
   <si>
-    <t xml:space="preserve">G17122T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1219S</t>
-  </si>
-  <si>
     <t xml:space="preserve">G18318T</t>
   </si>
   <si>
     <t xml:space="preserve">C18348T</t>
   </si>
   <si>
+    <t xml:space="preserve">C18555T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C18693T</t>
   </si>
   <si>
@@ -377,10 +596,10 @@
     <t xml:space="preserve">K1873N</t>
   </si>
   <si>
-    <t xml:space="preserve">C21575T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5F</t>
+    <t xml:space="preserve">A20055G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T21147A</t>
   </si>
   <si>
     <t xml:space="preserve">G21600T</t>
@@ -389,6 +608,12 @@
     <t xml:space="preserve">S13I</t>
   </si>
   <si>
+    <t xml:space="preserve">ATACATGT21765delTACATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">G21974T</t>
   </si>
   <si>
@@ -401,16 +626,16 @@
     <t xml:space="preserve">W152C</t>
   </si>
   <si>
-    <t xml:space="preserve">T22917G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L452R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G23593C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q677H</t>
+    <t xml:space="preserve">G23012A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E484K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23664T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A701V</t>
   </si>
   <si>
     <t xml:space="preserve">T24094A</t>
@@ -422,18 +647,18 @@
     <t xml:space="preserve">S939F</t>
   </si>
   <si>
+    <t xml:space="preserve">C25517T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P42L</t>
+  </si>
+  <si>
     <t xml:space="preserve">T25577C</t>
   </si>
   <si>
     <t xml:space="preserve">I62T</t>
   </si>
   <si>
-    <t xml:space="preserve">A26069G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E226G</t>
-  </si>
-  <si>
     <t xml:space="preserve">A26459G</t>
   </si>
   <si>
@@ -446,9 +671,6 @@
     <t xml:space="preserve">C26681T</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
     <t xml:space="preserve">G27074T</t>
   </si>
   <si>
@@ -461,13 +683,25 @@
     <t xml:space="preserve">A105V</t>
   </si>
   <si>
+    <t xml:space="preserve">C27925T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T11I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28057T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A55V</t>
+  </si>
+  <si>
     <t xml:space="preserve">A28272T</t>
   </si>
   <si>
-    <t xml:space="preserve">G28975T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M234I</t>
+    <t xml:space="preserve">C28977T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S235F</t>
   </si>
   <si>
     <t xml:space="preserve">C29400T</t>
@@ -485,16 +719,34 @@
     <t xml:space="preserve">G29422T</t>
   </si>
   <si>
-    <t xml:space="preserve">G29747T</t>
+    <t xml:space="preserve">AC29769delC, C29769T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 1,  </t>
   </si>
   <si>
     <t xml:space="preserve">C255A</t>
   </si>
   <si>
+    <t xml:space="preserve">C683T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C832T</t>
   </si>
   <si>
-    <t xml:space="preserve">C913T</t>
+    <t xml:space="preserve">C875A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L204I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1180G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1691G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I476V</t>
   </si>
   <si>
     <t xml:space="preserve">A1810T</t>
@@ -512,6 +764,12 @@
     <t xml:space="preserve">T2014C</t>
   </si>
   <si>
+    <t xml:space="preserve">G2035T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L590F</t>
+  </si>
+  <si>
     <t xml:space="preserve">G2144T</t>
   </si>
   <si>
@@ -521,6 +779,12 @@
     <t xml:space="preserve">C2395T</t>
   </si>
   <si>
+    <t xml:space="preserve">C2445T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T727I</t>
+  </si>
+  <si>
     <t xml:space="preserve">T2597C</t>
   </si>
   <si>
@@ -545,12 +809,6 @@
     <t xml:space="preserve">P971L</t>
   </si>
   <si>
-    <t xml:space="preserve">C3267T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1001I</t>
-  </si>
-  <si>
     <t xml:space="preserve">G3323T</t>
   </si>
   <si>
@@ -578,6 +836,12 @@
     <t xml:space="preserve">K1202N</t>
   </si>
   <si>
+    <t xml:space="preserve">A4056G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1264R</t>
+  </si>
+  <si>
     <t xml:space="preserve">G4184A</t>
   </si>
   <si>
@@ -596,12 +860,18 @@
     <t xml:space="preserve">A1380V</t>
   </si>
   <si>
+    <t xml:space="preserve">A4666G</t>
+  </si>
+  <si>
     <t xml:space="preserve">C4683T</t>
   </si>
   <si>
     <t xml:space="preserve">A1473V</t>
   </si>
   <si>
+    <t xml:space="preserve">A4687T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C4898T</t>
   </si>
   <si>
@@ -614,16 +884,34 @@
     <t xml:space="preserve">T1567A</t>
   </si>
   <si>
+    <t xml:space="preserve">C4999T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G5015A</t>
   </si>
   <si>
     <t xml:space="preserve">V1584M</t>
   </si>
   <si>
-    <t xml:space="preserve">C5388A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1708D</t>
+    <t xml:space="preserve">G5300T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1679S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5581T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5604G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1780R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5622T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1786L</t>
   </si>
   <si>
     <t xml:space="preserve">A5877G</t>
@@ -632,12 +920,12 @@
     <t xml:space="preserve">N1871S</t>
   </si>
   <si>
-    <t xml:space="preserve">C5986T</t>
-  </si>
-  <si>
     <t xml:space="preserve">A6505G</t>
   </si>
   <si>
+    <t xml:space="preserve">C6730T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C6781T</t>
   </si>
   <si>
@@ -653,28 +941,22 @@
     <t xml:space="preserve">N2216S</t>
   </si>
   <si>
-    <t xml:space="preserve">T6954C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2230T</t>
-  </si>
-  <si>
     <t xml:space="preserve">T7752C</t>
   </si>
   <si>
     <t xml:space="preserve">V2496A</t>
   </si>
   <si>
-    <t xml:space="preserve">C7860T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2532I</t>
-  </si>
-  <si>
     <t xml:space="preserve">G8017T</t>
   </si>
   <si>
-    <t xml:space="preserve">T8929C</t>
+    <t xml:space="preserve">C8123T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2620F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T8644C</t>
   </si>
   <si>
     <t xml:space="preserve">C8947T</t>
@@ -683,12 +965,21 @@
     <t xml:space="preserve">T9001G</t>
   </si>
   <si>
+    <t xml:space="preserve">A9085G</t>
+  </si>
+  <si>
     <t xml:space="preserve">T9167A</t>
   </si>
   <si>
     <t xml:space="preserve">Y2968N</t>
   </si>
   <si>
+    <t xml:space="preserve">G9203T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2980Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">C9214T</t>
   </si>
   <si>
@@ -701,12 +992,30 @@
     <t xml:space="preserve">A3143V</t>
   </si>
   <si>
+    <t xml:space="preserve">A9726G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y3154C</t>
+  </si>
+  <si>
     <t xml:space="preserve">G9738C</t>
   </si>
   <si>
     <t xml:space="preserve">S3158T</t>
   </si>
   <si>
+    <t xml:space="preserve">A9749G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3162E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9891T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3209V</t>
+  </si>
+  <si>
     <t xml:space="preserve">T9931C</t>
   </si>
   <si>
@@ -716,6 +1025,27 @@
     <t xml:space="preserve">L3238I</t>
   </si>
   <si>
+    <t xml:space="preserve">C10029T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3255I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10035C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I3257T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10252T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10317G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3351R</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10448T</t>
   </si>
   <si>
@@ -752,15 +1082,6 @@
     <t xml:space="preserve">L3606F</t>
   </si>
   <si>
-    <t xml:space="preserve">GTCTGGTTTT11288delTCTGGTTTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11344T</t>
-  </si>
-  <si>
     <t xml:space="preserve">T11632A</t>
   </si>
   <si>
@@ -773,18 +1094,21 @@
     <t xml:space="preserve">C3790F</t>
   </si>
   <si>
+    <t xml:space="preserve">AGG11719delG</t>
+  </si>
+  <si>
     <t xml:space="preserve">T11764C</t>
   </si>
   <si>
+    <t xml:space="preserve">G11804A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V3847I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C12100T</t>
   </si>
   <si>
-    <t xml:space="preserve">C12153T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3963V</t>
-  </si>
-  <si>
     <t xml:space="preserve">A12162G</t>
   </si>
   <si>
@@ -800,6 +1124,15 @@
     <t xml:space="preserve">T4090I</t>
   </si>
   <si>
+    <t xml:space="preserve">T12628C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12719G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4152V</t>
+  </si>
+  <si>
     <t xml:space="preserve">C12741T</t>
   </si>
   <si>
@@ -815,19 +1148,37 @@
     <t xml:space="preserve">C13019T</t>
   </si>
   <si>
+    <t xml:space="preserve">C13665T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G13713A</t>
   </si>
   <si>
+    <t xml:space="preserve">A13722G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13860T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G14290T</t>
   </si>
   <si>
     <t xml:space="preserve">D275Y</t>
   </si>
   <si>
-    <t xml:space="preserve">C14676T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15279T</t>
+    <t xml:space="preserve">C14340T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G14500T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V345L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T15056C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I530T</t>
   </si>
   <si>
     <t xml:space="preserve">C15738T</t>
@@ -836,7 +1187,10 @@
     <t xml:space="preserve">G15957A</t>
   </si>
   <si>
-    <t xml:space="preserve">T16176C</t>
+    <t xml:space="preserve">C16375T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P970S</t>
   </si>
   <si>
     <t xml:space="preserve">C16394T</t>
@@ -845,42 +1199,102 @@
     <t xml:space="preserve">P976L</t>
   </si>
   <si>
+    <t xml:space="preserve">T16456G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S997A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A16500C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1011H</t>
+  </si>
+  <si>
     <t xml:space="preserve">T16731C</t>
   </si>
   <si>
     <t xml:space="preserve">T17040C</t>
   </si>
   <si>
+    <t xml:space="preserve">A17060T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1198L</t>
+  </si>
+  <si>
     <t xml:space="preserve">T17407C</t>
   </si>
   <si>
+    <t xml:space="preserve">C17440T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1325S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G17551A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1362R</t>
+  </si>
+  <si>
     <t xml:space="preserve">A17615G</t>
   </si>
   <si>
     <t xml:space="preserve">K1383R</t>
   </si>
   <si>
+    <t xml:space="preserve">C17746T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1427S</t>
+  </si>
+  <si>
     <t xml:space="preserve">G17814T</t>
   </si>
   <si>
     <t xml:space="preserve">L1449F</t>
   </si>
   <si>
+    <t xml:space="preserve">T17870C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I1468T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C18501T</t>
   </si>
   <si>
     <t xml:space="preserve">C18814T</t>
   </si>
   <si>
+    <t xml:space="preserve">C18877T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A19167G</t>
+  </si>
+  <si>
     <t xml:space="preserve">C19170T</t>
   </si>
   <si>
+    <t xml:space="preserve">G19180T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1905L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C19273T</t>
   </si>
   <si>
     <t xml:space="preserve">P1936S</t>
   </si>
   <si>
+    <t xml:space="preserve">C19274A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1936H</t>
+  </si>
+  <si>
     <t xml:space="preserve">G19327A</t>
   </si>
   <si>
@@ -890,12 +1304,24 @@
     <t xml:space="preserve">C19803T</t>
   </si>
   <si>
+    <t xml:space="preserve">T19839C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G20062A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2199I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C20081T</t>
   </si>
   <si>
     <t xml:space="preserve">S2205F</t>
   </si>
   <si>
+    <t xml:space="preserve">A20262G</t>
+  </si>
+  <si>
     <t xml:space="preserve">A20279G</t>
   </si>
   <si>
@@ -911,15 +1337,30 @@
     <t xml:space="preserve">V2326I</t>
   </si>
   <si>
+    <t xml:space="preserve">G20527A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2354I</t>
+  </si>
+  <si>
     <t xml:space="preserve">A20640G</t>
   </si>
   <si>
+    <t xml:space="preserve">T20748C</t>
+  </si>
+  <si>
     <t xml:space="preserve">A20860G</t>
   </si>
   <si>
     <t xml:space="preserve">I2465V</t>
   </si>
   <si>
+    <t xml:space="preserve">G20933A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2489D</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21077T</t>
   </si>
   <si>
@@ -947,19 +1388,37 @@
     <t xml:space="preserve">C21727T</t>
   </si>
   <si>
-    <t xml:space="preserve">ATACATGT21765delTACATG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 6</t>
+    <t xml:space="preserve">A21801G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D80G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21846T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T95I</t>
   </si>
   <si>
     <t xml:space="preserve">T21931C</t>
   </si>
   <si>
-    <t xml:space="preserve">TTTATTA21991delTTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 3</t>
+    <t xml:space="preserve">G22017T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W152L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T22032C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F157S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A22320G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D253G</t>
   </si>
   <si>
     <t xml:space="preserve">C22522T</t>
@@ -968,16 +1427,16 @@
     <t xml:space="preserve">C22597T</t>
   </si>
   <si>
-    <t xml:space="preserve">A23063T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N501Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23271A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A570D</t>
+    <t xml:space="preserve">T23042C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S494P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G23236T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K558N</t>
   </si>
   <si>
     <t xml:space="preserve">C23481T</t>
@@ -986,10 +1445,16 @@
     <t xml:space="preserve">S640F</t>
   </si>
   <si>
-    <t xml:space="preserve">C23709T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T716I</t>
+    <t xml:space="preserve">G23522C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E654Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G23868T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G769V</t>
   </si>
   <si>
     <t xml:space="preserve">C23987T</t>
@@ -1001,30 +1466,54 @@
     <t xml:space="preserve">C24082T</t>
   </si>
   <si>
+    <t xml:space="preserve">C24138A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T859N</t>
+  </si>
+  <si>
     <t xml:space="preserve">T24349C</t>
   </si>
   <si>
-    <t xml:space="preserve">T24506G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S982A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G24914C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1118H</t>
+    <t xml:space="preserve">G24410C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D950H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G24794T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1078S</t>
   </si>
   <si>
     <t xml:space="preserve">A25174G</t>
   </si>
   <si>
+    <t xml:space="preserve">C25413T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25587T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25703T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P104L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C25714T</t>
   </si>
   <si>
     <t xml:space="preserve">L108F</t>
   </si>
   <si>
+    <t xml:space="preserve">G25785C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W131C</t>
+  </si>
+  <si>
     <t xml:space="preserve">G25855T</t>
   </si>
   <si>
@@ -1034,6 +1523,12 @@
     <t xml:space="preserve">A25974G</t>
   </si>
   <si>
+    <t xml:space="preserve">C26124T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A26148G</t>
+  </si>
+  <si>
     <t xml:space="preserve">C26464T</t>
   </si>
   <si>
@@ -1043,6 +1538,12 @@
     <t xml:space="preserve">T7I</t>
   </si>
   <si>
+    <t xml:space="preserve">T26604C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F28L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C26622T</t>
   </si>
   <si>
@@ -1055,7 +1556,10 @@
     <t xml:space="preserve">L46F</t>
   </si>
   <si>
-    <t xml:space="preserve">C26885T</t>
+    <t xml:space="preserve">T26767C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I82T</t>
   </si>
   <si>
     <t xml:space="preserve">G26951T</t>
@@ -1064,6 +1568,12 @@
     <t xml:space="preserve">C27011T</t>
   </si>
   <si>
+    <t xml:space="preserve">C27213T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf6</t>
+  </si>
+  <si>
     <t xml:space="preserve">C27434T</t>
   </si>
   <si>
@@ -1073,22 +1583,22 @@
     <t xml:space="preserve">T27484C</t>
   </si>
   <si>
+    <t xml:space="preserve">A27488C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K32T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G27890T</t>
   </si>
   <si>
-    <t xml:space="preserve">C27972T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q27*</t>
-  </si>
-  <si>
     <t xml:space="preserve">C27998T</t>
   </si>
   <si>
-    <t xml:space="preserve">G28048T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R52I</t>
+    <t xml:space="preserve">G28044T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A51S</t>
   </si>
   <si>
     <t xml:space="preserve">C28087T</t>
@@ -1103,40 +1613,49 @@
     <t xml:space="preserve">P70L</t>
   </si>
   <si>
-    <t xml:space="preserve">A28111G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y73C</t>
-  </si>
-  <si>
     <t xml:space="preserve">C28115T</t>
   </si>
   <si>
-    <t xml:space="preserve">TAAAA28271delA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28280C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A28281T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T28282A</t>
+    <t xml:space="preserve">C28227T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H112Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28311T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P13L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28727T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A152S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28833T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S187L</t>
   </si>
   <si>
     <t xml:space="preserve">C28957T</t>
   </si>
   <si>
-    <t xml:space="preserve">C28977T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S235F</t>
+    <t xml:space="preserve">G29027T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A252S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29044A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29171T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H300Y</t>
   </si>
   <si>
     <t xml:space="preserve">C29200T</t>
@@ -1145,13 +1664,28 @@
     <t xml:space="preserve">A29209C</t>
   </si>
   <si>
+    <t xml:space="preserve">C29250T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P326L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C29362T</t>
   </si>
   <si>
-    <t xml:space="preserve">G29402T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D377Y</t>
+    <t xml:space="preserve">C29509T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29520T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S416L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29527T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q418H</t>
   </si>
   <si>
     <t xml:space="preserve">C29627T</t>
@@ -1166,7 +1700,19 @@
     <t xml:space="preserve">C29686T</t>
   </si>
   <si>
-    <t xml:space="preserve">AC29769delC</t>
+    <t xml:space="preserve">TG29711delG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29717T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29719T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A29752G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29779T</t>
   </si>
   <si>
     <t xml:space="preserve">G29825T</t>
@@ -1520,7 +2066,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>241</v>
+        <v>8782</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1532,245 +2078,245 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3037</v>
+        <v>14408</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8782</v>
+        <v>18060</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14408</v>
+        <v>23403</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18060</v>
+        <v>28144</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23403</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28144</v>
+        <v>3037</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28854</v>
+        <v>23604</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>23604</v>
+        <v>28854</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6618</v>
+        <v>29266</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7833</v>
+        <v>1578</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10741</v>
+        <v>6618</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>24076</v>
+        <v>7833</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="n">
         <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>29266</v>
+        <v>10741</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1578</v>
+        <v>24076</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -1781,13 +2327,13 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1798,13 +2344,13 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1815,13 +2361,13 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1838,347 +2384,347 @@
         <v>41</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10319</v>
+        <v>27964</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>18424</v>
+        <v>28271</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21304</v>
+        <v>28869</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25907</v>
+        <v>10319</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>27964</v>
+        <v>18424</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28472</v>
+        <v>21304</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28869</v>
+        <v>25907</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>55</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1408</v>
+        <v>28472</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2155</v>
+        <v>27972</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7764</v>
+        <v>28048</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8083</v>
+        <v>28881</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11102</v>
+        <v>28882</v>
       </c>
       <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12073</v>
+        <v>28883</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14805</v>
+        <v>8083</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19584</v>
+        <v>11288</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19875</v>
+        <v>14805</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27923</v>
+        <v>23063</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>28881</v>
+        <v>23709</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>28882</v>
+        <v>24914</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>28883</v>
+        <v>27923</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2186,659 +2732,659 @@
         <v>28887</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>527</v>
+        <v>913</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>936</v>
+        <v>5388</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1912</v>
+        <v>11102</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2095</v>
+        <v>12153</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2342</v>
+        <v>19875</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2516</v>
+        <v>24506</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3259</v>
+        <v>28111</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3418</v>
+        <v>28280</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3510</v>
+        <v>28281</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3587</v>
+        <v>28282</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4636</v>
+        <v>28975</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5999</v>
+        <v>936</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7420</v>
+        <v>1408</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7735</v>
+        <v>2155</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9928</v>
+        <v>3259</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10323</v>
+        <v>3267</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10798</v>
+        <v>5986</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11591</v>
+        <v>6954</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11747</v>
+        <v>7042</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11866</v>
+        <v>7764</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12986</v>
+        <v>7860</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>16173</v>
+        <v>8929</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>16917</v>
+        <v>11344</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>17014</v>
+        <v>11591</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>17122</v>
+        <v>12073</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>18318</v>
+        <v>17122</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>18348</v>
+        <v>19584</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>18693</v>
+        <v>21575</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>19086</v>
+        <v>21991</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21575</v>
+        <v>22917</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>21600</v>
+        <v>23271</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>21974</v>
+        <v>23593</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>22018</v>
+        <v>26069</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>22917</v>
+        <v>26885</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>23593</v>
+        <v>28095</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>24094</v>
+        <v>29402</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>24378</v>
+        <v>29747</v>
       </c>
       <c r="B78" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>25577</v>
+        <v>527</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -2846,16 +3392,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>26069</v>
+        <v>1912</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
@@ -2863,16 +3409,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>26459</v>
+        <v>2095</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -2880,16 +3426,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>26681</v>
+        <v>2110</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -2897,16 +3443,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>27074</v>
+        <v>2342</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -2914,16 +3460,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>27707</v>
+        <v>2516</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -2931,16 +3477,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>28272</v>
+        <v>3418</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -2948,16 +3494,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>28975</v>
+        <v>3510</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -2965,16 +3511,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>29400</v>
+        <v>3587</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -2982,16 +3528,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>29405</v>
+        <v>4636</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -2999,16 +3545,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>29422</v>
+        <v>5999</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -3016,16 +3562,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>29747</v>
+        <v>6525</v>
       </c>
       <c r="B90" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -3033,10 +3579,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>255</v>
+        <v>7393</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -3045,803 +3591,803 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>832</v>
+        <v>7420</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>913</v>
+        <v>7735</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1810</v>
+        <v>9867</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1946</v>
+        <v>9928</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2014</v>
+        <v>10323</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2144</v>
+        <v>10798</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2395</v>
+        <v>11514</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2597</v>
+        <v>11747</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2654</v>
+        <v>11866</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2677</v>
+        <v>12986</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3096</v>
+        <v>14120</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3177</v>
+        <v>14676</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3267</v>
+        <v>15279</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3323</v>
+        <v>16173</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3527</v>
+        <v>16176</v>
       </c>
       <c r="B106" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>3777</v>
+        <v>16917</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3817</v>
+        <v>17014</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3871</v>
+        <v>18318</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4184</v>
+        <v>18348</v>
       </c>
       <c r="B110" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4206</v>
+        <v>18555</v>
       </c>
       <c r="B111" t="s">
         <v>190</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4404</v>
+        <v>18693</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4683</v>
+        <v>19086</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4898</v>
+        <v>20055</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>4964</v>
+        <v>21147</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5015</v>
+        <v>21600</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5388</v>
+        <v>21765</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5877</v>
+        <v>21974</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5986</v>
+        <v>22018</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6505</v>
+        <v>23012</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6781</v>
+        <v>23664</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6843</v>
+        <v>24094</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6912</v>
+        <v>24378</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>6954</v>
+        <v>25517</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D124" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>7752</v>
+        <v>25577</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>7860</v>
+        <v>26459</v>
       </c>
       <c r="B126" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" t="s">
         <v>217</v>
       </c>
-      <c r="C126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" t="s">
-        <v>218</v>
-      </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>8017</v>
+        <v>26681</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8929</v>
+        <v>27074</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>8947</v>
+        <v>27707</v>
       </c>
       <c r="B129" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" t="s">
         <v>221</v>
       </c>
-      <c r="C129" t="s">
-        <v>9</v>
-      </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9001</v>
+        <v>27925</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9167</v>
+        <v>28057</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9214</v>
+        <v>28272</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9223</v>
+        <v>28977</v>
       </c>
       <c r="B133" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9693</v>
+        <v>29400</v>
       </c>
       <c r="B134" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9738</v>
+        <v>29405</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9931</v>
+        <v>29422</v>
       </c>
       <c r="B136" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9977</v>
+        <v>29769</v>
       </c>
       <c r="B137" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D137" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10448</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -3849,16 +4395,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10747</v>
+        <v>683</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E139" t="n">
         <v>1</v>
@@ -3866,16 +4412,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>10874</v>
+        <v>832</v>
       </c>
       <c r="B140" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
@@ -3883,16 +4429,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>11003</v>
+        <v>875</v>
       </c>
       <c r="B141" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -3900,16 +4446,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>11008</v>
+        <v>1180</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -3917,16 +4463,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>11049</v>
+        <v>1691</v>
       </c>
       <c r="B143" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -3934,16 +4480,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>11083</v>
+        <v>1810</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -3951,16 +4497,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>11288</v>
+        <v>1946</v>
       </c>
       <c r="B145" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
@@ -3968,16 +4514,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>11344</v>
+        <v>2014</v>
       </c>
       <c r="B146" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -3985,16 +4531,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11632</v>
+        <v>2035</v>
       </c>
       <c r="B147" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E147" t="n">
         <v>1</v>
@@ -4002,16 +4548,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>11634</v>
+        <v>2144</v>
       </c>
       <c r="B148" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D148" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -4019,16 +4565,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>11764</v>
+        <v>2395</v>
       </c>
       <c r="B149" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -4036,16 +4582,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>12100</v>
+        <v>2445</v>
       </c>
       <c r="B150" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -4053,16 +4599,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>12153</v>
+        <v>2597</v>
       </c>
       <c r="B151" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="E151" t="n">
         <v>1</v>
@@ -4070,16 +4616,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>12162</v>
+        <v>2654</v>
       </c>
       <c r="B152" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -4087,16 +4633,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>12295</v>
+        <v>2677</v>
       </c>
       <c r="B153" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
@@ -4104,16 +4650,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>12534</v>
+        <v>3096</v>
       </c>
       <c r="B154" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E154" t="n">
         <v>1</v>
@@ -4121,16 +4667,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>12741</v>
+        <v>3177</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -4138,16 +4684,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>12878</v>
+        <v>3323</v>
       </c>
       <c r="B156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -4155,16 +4701,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>13019</v>
+        <v>3527</v>
       </c>
       <c r="B157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="E157" t="n">
         <v>1</v>
@@ -4172,16 +4718,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>13713</v>
+        <v>3777</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -4189,16 +4735,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>14290</v>
+        <v>3817</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D159" t="s">
-        <v>269</v>
+        <v>7</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
@@ -4206,16 +4752,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>14676</v>
+        <v>3871</v>
       </c>
       <c r="B160" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -4223,16 +4769,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>15279</v>
+        <v>4056</v>
       </c>
       <c r="B161" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
@@ -4240,16 +4786,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>15738</v>
+        <v>4184</v>
       </c>
       <c r="B162" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
@@ -4257,16 +4803,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>15957</v>
+        <v>4206</v>
       </c>
       <c r="B163" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>279</v>
       </c>
       <c r="E163" t="n">
         <v>1</v>
@@ -4274,16 +4820,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>16176</v>
+        <v>4404</v>
       </c>
       <c r="B164" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -4291,16 +4837,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>16394</v>
+        <v>4666</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
@@ -4308,16 +4854,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>16731</v>
+        <v>4683</v>
       </c>
       <c r="B166" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
@@ -4325,16 +4871,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>17040</v>
+        <v>4687</v>
       </c>
       <c r="B167" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -4342,16 +4888,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>17407</v>
+        <v>4898</v>
       </c>
       <c r="B168" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>287</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -4359,16 +4905,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>17615</v>
+        <v>4964</v>
       </c>
       <c r="B169" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
@@ -4376,16 +4922,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>17814</v>
+        <v>4999</v>
       </c>
       <c r="B170" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="E170" t="n">
         <v>1</v>
@@ -4393,16 +4939,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>18501</v>
+        <v>5015</v>
       </c>
       <c r="B171" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>292</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -4410,16 +4956,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>18814</v>
+        <v>5300</v>
       </c>
       <c r="B172" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>294</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -4427,16 +4973,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>19170</v>
+        <v>5581</v>
       </c>
       <c r="B173" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -4444,16 +4990,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>19273</v>
+        <v>5604</v>
       </c>
       <c r="B174" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E174" t="n">
         <v>1</v>
@@ -4461,16 +5007,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>19327</v>
+        <v>5622</v>
       </c>
       <c r="B175" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D175" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E175" t="n">
         <v>1</v>
@@ -4478,16 +5024,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>19803</v>
+        <v>5877</v>
       </c>
       <c r="B176" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -4495,16 +5041,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>20081</v>
+        <v>6505</v>
       </c>
       <c r="B177" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D177" t="s">
-        <v>293</v>
+        <v>7</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -4512,16 +5058,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>20279</v>
+        <v>6730</v>
       </c>
       <c r="B178" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -4529,16 +5075,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>20283</v>
+        <v>6781</v>
       </c>
       <c r="B179" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -4546,16 +5092,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>20443</v>
+        <v>6843</v>
       </c>
       <c r="B180" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
@@ -4563,16 +5109,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>20640</v>
+        <v>6912</v>
       </c>
       <c r="B181" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>308</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
@@ -4580,16 +5126,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>20860</v>
+        <v>7752</v>
       </c>
       <c r="B182" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -4597,16 +5143,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>21077</v>
+        <v>8017</v>
       </c>
       <c r="B183" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D183" t="s">
-        <v>303</v>
+        <v>7</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -4614,16 +5160,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>21137</v>
+        <v>8123</v>
       </c>
       <c r="B184" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -4631,16 +5177,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>21305</v>
+        <v>8644</v>
       </c>
       <c r="B185" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D185" t="s">
-        <v>307</v>
+        <v>7</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -4648,16 +5194,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>21578</v>
+        <v>8947</v>
       </c>
       <c r="B186" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D186" t="s">
-        <v>309</v>
+        <v>7</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -4665,16 +5211,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>21727</v>
+        <v>9001</v>
       </c>
       <c r="B187" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -4682,16 +5228,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>21765</v>
+        <v>9085</v>
       </c>
       <c r="B188" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C188" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>312</v>
+        <v>7</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -4699,16 +5245,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>21931</v>
+        <v>9167</v>
       </c>
       <c r="B189" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C189" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="E189" t="n">
         <v>1</v>
@@ -4716,16 +5262,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>21991</v>
+        <v>9203</v>
       </c>
       <c r="B190" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E190" t="n">
         <v>1</v>
@@ -4733,16 +5279,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>22522</v>
+        <v>9214</v>
       </c>
       <c r="B191" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E191" t="n">
         <v>1</v>
@@ -4750,16 +5296,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>22597</v>
+        <v>9223</v>
       </c>
       <c r="B192" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -4767,16 +5313,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>23063</v>
+        <v>9693</v>
       </c>
       <c r="B193" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C193" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E193" t="n">
         <v>1</v>
@@ -4784,16 +5330,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>23271</v>
+        <v>9726</v>
       </c>
       <c r="B194" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E194" t="n">
         <v>1</v>
@@ -4801,16 +5347,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>23481</v>
+        <v>9738</v>
       </c>
       <c r="B195" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -4818,16 +5364,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>23709</v>
+        <v>9749</v>
       </c>
       <c r="B196" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C196" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -4835,16 +5381,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>23987</v>
+        <v>9891</v>
       </c>
       <c r="B197" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C197" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -4852,16 +5398,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>24082</v>
+        <v>9931</v>
       </c>
       <c r="B198" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C198" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
@@ -4869,16 +5415,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>24349</v>
+        <v>9977</v>
       </c>
       <c r="B199" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C199" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="E199" t="n">
         <v>1</v>
@@ -4886,16 +5432,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>24506</v>
+        <v>10029</v>
       </c>
       <c r="B200" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C200" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -4903,16 +5449,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>24914</v>
+        <v>10035</v>
       </c>
       <c r="B201" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D201" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -4920,16 +5466,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>25174</v>
+        <v>10252</v>
       </c>
       <c r="B202" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E202" t="n">
         <v>1</v>
@@ -4937,16 +5483,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>25714</v>
+        <v>10317</v>
       </c>
       <c r="B203" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C203" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D203" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -4954,16 +5500,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>25855</v>
+        <v>10448</v>
       </c>
       <c r="B204" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C204" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="E204" t="n">
         <v>1</v>
@@ -4971,16 +5517,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>25974</v>
+        <v>10747</v>
       </c>
       <c r="B205" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C205" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -4988,16 +5534,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>26464</v>
+        <v>10874</v>
       </c>
       <c r="B206" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C206" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>348</v>
       </c>
       <c r="E206" t="n">
         <v>1</v>
@@ -5005,16 +5551,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>26542</v>
+        <v>11003</v>
       </c>
       <c r="B207" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C207" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D207" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E207" t="n">
         <v>1</v>
@@ -5022,16 +5568,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>26622</v>
+        <v>11008</v>
       </c>
       <c r="B208" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C208" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>344</v>
+        <v>7</v>
       </c>
       <c r="E208" t="n">
         <v>1</v>
@@ -5039,16 +5585,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>26660</v>
+        <v>11049</v>
       </c>
       <c r="B209" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C209" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D209" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -5056,16 +5602,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>26885</v>
+        <v>11083</v>
       </c>
       <c r="B210" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C210" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>355</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
@@ -5073,16 +5619,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>26951</v>
+        <v>11632</v>
       </c>
       <c r="B211" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C211" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="E211" t="n">
         <v>1</v>
@@ -5090,16 +5636,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>27011</v>
+        <v>11634</v>
       </c>
       <c r="B212" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C212" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -5107,16 +5653,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>27434</v>
+        <v>11719</v>
       </c>
       <c r="B213" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C213" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
@@ -5124,16 +5670,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>27484</v>
+        <v>11764</v>
       </c>
       <c r="B214" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C214" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
@@ -5141,16 +5687,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>27890</v>
+        <v>11804</v>
       </c>
       <c r="B215" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>363</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -5158,16 +5704,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>27972</v>
+        <v>12100</v>
       </c>
       <c r="B216" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D216" t="s">
-        <v>355</v>
+        <v>7</v>
       </c>
       <c r="E216" t="n">
         <v>1</v>
@@ -5175,16 +5721,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>27998</v>
+        <v>12162</v>
       </c>
       <c r="B217" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>366</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
@@ -5192,16 +5738,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>28048</v>
+        <v>12295</v>
       </c>
       <c r="B218" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D218" t="s">
-        <v>358</v>
+        <v>7</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -5209,16 +5755,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>28087</v>
+        <v>12534</v>
       </c>
       <c r="B219" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E219" t="n">
         <v>1</v>
@@ -5226,16 +5772,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>28102</v>
+        <v>12628</v>
       </c>
       <c r="B220" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -5243,16 +5789,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>28111</v>
+        <v>12719</v>
       </c>
       <c r="B221" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D221" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E221" t="n">
         <v>1</v>
@@ -5260,16 +5806,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>28115</v>
+        <v>12741</v>
       </c>
       <c r="B222" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>374</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -5277,16 +5823,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>28271</v>
+        <v>12878</v>
       </c>
       <c r="B223" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -5294,16 +5840,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>28280</v>
+        <v>13019</v>
       </c>
       <c r="B224" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -5311,16 +5857,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>28281</v>
+        <v>13665</v>
       </c>
       <c r="B225" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D225" t="s">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
@@ -5328,16 +5874,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>28282</v>
+        <v>13713</v>
       </c>
       <c r="B226" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="E226" t="n">
         <v>1</v>
@@ -5345,16 +5891,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>28957</v>
+        <v>13722</v>
       </c>
       <c r="B227" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C227" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -5362,16 +5908,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>28977</v>
+        <v>13860</v>
       </c>
       <c r="B228" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C228" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>374</v>
+        <v>7</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -5379,16 +5925,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>29200</v>
+        <v>14290</v>
       </c>
       <c r="B229" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>383</v>
       </c>
       <c r="E229" t="n">
         <v>1</v>
@@ -5396,16 +5942,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>29209</v>
+        <v>14340</v>
       </c>
       <c r="B230" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D230" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5413,16 +5959,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>29362</v>
+        <v>14500</v>
       </c>
       <c r="B231" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D231" t="s">
-        <v>10</v>
+        <v>386</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
@@ -5430,16 +5976,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>29402</v>
+        <v>15056</v>
       </c>
       <c r="B232" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
@@ -5447,16 +5993,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>29627</v>
+        <v>15738</v>
       </c>
       <c r="B233" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C233" t="s">
-        <v>381</v>
+        <v>6</v>
       </c>
       <c r="D233" t="s">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -5464,10 +6010,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>29686</v>
+        <v>15957</v>
       </c>
       <c r="B234" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -5481,16 +6027,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>29769</v>
+        <v>16375</v>
       </c>
       <c r="B235" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
       </c>
       <c r="D235" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="E235" t="n">
         <v>1</v>
@@ -5498,18 +6044,1871 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
+        <v>16394</v>
+      </c>
+      <c r="B236" t="s">
+        <v>393</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>394</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>16456</v>
+      </c>
+      <c r="B237" t="s">
+        <v>395</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>396</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>16500</v>
+      </c>
+      <c r="B238" t="s">
+        <v>397</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>398</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>16731</v>
+      </c>
+      <c r="B239" t="s">
+        <v>399</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>17040</v>
+      </c>
+      <c r="B240" t="s">
+        <v>400</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>17060</v>
+      </c>
+      <c r="B241" t="s">
+        <v>401</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>402</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>17407</v>
+      </c>
+      <c r="B242" t="s">
+        <v>403</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>17440</v>
+      </c>
+      <c r="B243" t="s">
+        <v>404</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>405</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>17551</v>
+      </c>
+      <c r="B244" t="s">
+        <v>406</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>407</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>17615</v>
+      </c>
+      <c r="B245" t="s">
+        <v>408</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>409</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>17746</v>
+      </c>
+      <c r="B246" t="s">
+        <v>410</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>411</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>17814</v>
+      </c>
+      <c r="B247" t="s">
+        <v>412</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>413</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>17870</v>
+      </c>
+      <c r="B248" t="s">
+        <v>414</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="s">
+        <v>415</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>18501</v>
+      </c>
+      <c r="B249" t="s">
+        <v>416</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>18814</v>
+      </c>
+      <c r="B250" t="s">
+        <v>417</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>18877</v>
+      </c>
+      <c r="B251" t="s">
+        <v>418</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>19167</v>
+      </c>
+      <c r="B252" t="s">
+        <v>419</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>19170</v>
+      </c>
+      <c r="B253" t="s">
+        <v>420</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>19180</v>
+      </c>
+      <c r="B254" t="s">
+        <v>421</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>422</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>19273</v>
+      </c>
+      <c r="B255" t="s">
+        <v>423</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>424</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>19274</v>
+      </c>
+      <c r="B256" t="s">
+        <v>425</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="s">
+        <v>426</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>19327</v>
+      </c>
+      <c r="B257" t="s">
+        <v>427</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>428</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>19803</v>
+      </c>
+      <c r="B258" t="s">
+        <v>429</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>19839</v>
+      </c>
+      <c r="B259" t="s">
+        <v>430</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>20062</v>
+      </c>
+      <c r="B260" t="s">
+        <v>431</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>432</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>20081</v>
+      </c>
+      <c r="B261" t="s">
+        <v>433</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>434</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>20262</v>
+      </c>
+      <c r="B262" t="s">
+        <v>435</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>20279</v>
+      </c>
+      <c r="B263" t="s">
+        <v>436</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>437</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>20283</v>
+      </c>
+      <c r="B264" t="s">
+        <v>438</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>20443</v>
+      </c>
+      <c r="B265" t="s">
+        <v>439</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>440</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>20527</v>
+      </c>
+      <c r="B266" t="s">
+        <v>441</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>442</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>20640</v>
+      </c>
+      <c r="B267" t="s">
+        <v>443</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>20748</v>
+      </c>
+      <c r="B268" t="s">
+        <v>444</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>20860</v>
+      </c>
+      <c r="B269" t="s">
+        <v>445</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>446</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>20933</v>
+      </c>
+      <c r="B270" t="s">
+        <v>447</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>448</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>21077</v>
+      </c>
+      <c r="B271" t="s">
+        <v>449</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>450</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>21137</v>
+      </c>
+      <c r="B272" t="s">
+        <v>451</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s">
+        <v>452</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>21305</v>
+      </c>
+      <c r="B273" t="s">
+        <v>453</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="s">
+        <v>454</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>21578</v>
+      </c>
+      <c r="B274" t="s">
+        <v>455</v>
+      </c>
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" t="s">
+        <v>456</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>21727</v>
+      </c>
+      <c r="B275" t="s">
+        <v>457</v>
+      </c>
+      <c r="C275" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>21801</v>
+      </c>
+      <c r="B276" t="s">
+        <v>458</v>
+      </c>
+      <c r="C276" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" t="s">
+        <v>459</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>21846</v>
+      </c>
+      <c r="B277" t="s">
+        <v>460</v>
+      </c>
+      <c r="C277" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" t="s">
+        <v>461</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>21931</v>
+      </c>
+      <c r="B278" t="s">
+        <v>462</v>
+      </c>
+      <c r="C278" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>22017</v>
+      </c>
+      <c r="B279" t="s">
+        <v>463</v>
+      </c>
+      <c r="C279" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" t="s">
+        <v>464</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>22032</v>
+      </c>
+      <c r="B280" t="s">
+        <v>465</v>
+      </c>
+      <c r="C280" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" t="s">
+        <v>466</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>22320</v>
+      </c>
+      <c r="B281" t="s">
+        <v>467</v>
+      </c>
+      <c r="C281" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" t="s">
+        <v>468</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B282" t="s">
+        <v>469</v>
+      </c>
+      <c r="C282" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>22597</v>
+      </c>
+      <c r="B283" t="s">
+        <v>470</v>
+      </c>
+      <c r="C283" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>23042</v>
+      </c>
+      <c r="B284" t="s">
+        <v>471</v>
+      </c>
+      <c r="C284" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" t="s">
+        <v>472</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>23236</v>
+      </c>
+      <c r="B285" t="s">
+        <v>473</v>
+      </c>
+      <c r="C285" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" t="s">
+        <v>474</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>23481</v>
+      </c>
+      <c r="B286" t="s">
+        <v>475</v>
+      </c>
+      <c r="C286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" t="s">
+        <v>476</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>23522</v>
+      </c>
+      <c r="B287" t="s">
+        <v>477</v>
+      </c>
+      <c r="C287" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" t="s">
+        <v>478</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>23868</v>
+      </c>
+      <c r="B288" t="s">
+        <v>479</v>
+      </c>
+      <c r="C288" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" t="s">
+        <v>480</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>23987</v>
+      </c>
+      <c r="B289" t="s">
+        <v>481</v>
+      </c>
+      <c r="C289" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" t="s">
+        <v>482</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>24082</v>
+      </c>
+      <c r="B290" t="s">
+        <v>483</v>
+      </c>
+      <c r="C290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>24138</v>
+      </c>
+      <c r="B291" t="s">
+        <v>484</v>
+      </c>
+      <c r="C291" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" t="s">
+        <v>485</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>24349</v>
+      </c>
+      <c r="B292" t="s">
+        <v>486</v>
+      </c>
+      <c r="C292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>24410</v>
+      </c>
+      <c r="B293" t="s">
+        <v>487</v>
+      </c>
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" t="s">
+        <v>488</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>24794</v>
+      </c>
+      <c r="B294" t="s">
+        <v>489</v>
+      </c>
+      <c r="C294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" t="s">
+        <v>490</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>25174</v>
+      </c>
+      <c r="B295" t="s">
+        <v>491</v>
+      </c>
+      <c r="C295" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>25413</v>
+      </c>
+      <c r="B296" t="s">
+        <v>492</v>
+      </c>
+      <c r="C296" t="s">
+        <v>40</v>
+      </c>
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>25587</v>
+      </c>
+      <c r="B297" t="s">
+        <v>493</v>
+      </c>
+      <c r="C297" t="s">
+        <v>40</v>
+      </c>
+      <c r="D297" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>25703</v>
+      </c>
+      <c r="B298" t="s">
+        <v>494</v>
+      </c>
+      <c r="C298" t="s">
+        <v>40</v>
+      </c>
+      <c r="D298" t="s">
+        <v>495</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>25714</v>
+      </c>
+      <c r="B299" t="s">
+        <v>496</v>
+      </c>
+      <c r="C299" t="s">
+        <v>40</v>
+      </c>
+      <c r="D299" t="s">
+        <v>497</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>25785</v>
+      </c>
+      <c r="B300" t="s">
+        <v>498</v>
+      </c>
+      <c r="C300" t="s">
+        <v>40</v>
+      </c>
+      <c r="D300" t="s">
+        <v>499</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>25855</v>
+      </c>
+      <c r="B301" t="s">
+        <v>500</v>
+      </c>
+      <c r="C301" t="s">
+        <v>40</v>
+      </c>
+      <c r="D301" t="s">
+        <v>501</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>25974</v>
+      </c>
+      <c r="B302" t="s">
+        <v>502</v>
+      </c>
+      <c r="C302" t="s">
+        <v>40</v>
+      </c>
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>26124</v>
+      </c>
+      <c r="B303" t="s">
+        <v>503</v>
+      </c>
+      <c r="C303" t="s">
+        <v>40</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>26148</v>
+      </c>
+      <c r="B304" t="s">
+        <v>504</v>
+      </c>
+      <c r="C304" t="s">
+        <v>40</v>
+      </c>
+      <c r="D304" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>26464</v>
+      </c>
+      <c r="B305" t="s">
+        <v>505</v>
+      </c>
+      <c r="C305" t="s">
+        <v>216</v>
+      </c>
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>26542</v>
+      </c>
+      <c r="B306" t="s">
+        <v>506</v>
+      </c>
+      <c r="C306" t="s">
+        <v>138</v>
+      </c>
+      <c r="D306" t="s">
+        <v>507</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>26604</v>
+      </c>
+      <c r="B307" t="s">
+        <v>508</v>
+      </c>
+      <c r="C307" t="s">
+        <v>138</v>
+      </c>
+      <c r="D307" t="s">
+        <v>509</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>26622</v>
+      </c>
+      <c r="B308" t="s">
+        <v>510</v>
+      </c>
+      <c r="C308" t="s">
+        <v>138</v>
+      </c>
+      <c r="D308" t="s">
+        <v>511</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>26660</v>
+      </c>
+      <c r="B309" t="s">
+        <v>512</v>
+      </c>
+      <c r="C309" t="s">
+        <v>138</v>
+      </c>
+      <c r="D309" t="s">
+        <v>513</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>26767</v>
+      </c>
+      <c r="B310" t="s">
+        <v>514</v>
+      </c>
+      <c r="C310" t="s">
+        <v>138</v>
+      </c>
+      <c r="D310" t="s">
+        <v>515</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>26951</v>
+      </c>
+      <c r="B311" t="s">
+        <v>516</v>
+      </c>
+      <c r="C311" t="s">
+        <v>138</v>
+      </c>
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>27011</v>
+      </c>
+      <c r="B312" t="s">
+        <v>517</v>
+      </c>
+      <c r="C312" t="s">
+        <v>138</v>
+      </c>
+      <c r="D312" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>27213</v>
+      </c>
+      <c r="B313" t="s">
+        <v>518</v>
+      </c>
+      <c r="C313" t="s">
+        <v>519</v>
+      </c>
+      <c r="D313" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>27434</v>
+      </c>
+      <c r="B314" t="s">
+        <v>520</v>
+      </c>
+      <c r="C314" t="s">
+        <v>221</v>
+      </c>
+      <c r="D314" t="s">
+        <v>521</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>27484</v>
+      </c>
+      <c r="B315" t="s">
+        <v>522</v>
+      </c>
+      <c r="C315" t="s">
+        <v>221</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>27488</v>
+      </c>
+      <c r="B316" t="s">
+        <v>523</v>
+      </c>
+      <c r="C316" t="s">
+        <v>221</v>
+      </c>
+      <c r="D316" t="s">
+        <v>524</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>27890</v>
+      </c>
+      <c r="B317" t="s">
+        <v>525</v>
+      </c>
+      <c r="C317" t="s">
+        <v>18</v>
+      </c>
+      <c r="D317" t="s">
+        <v>19</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>27998</v>
+      </c>
+      <c r="B318" t="s">
+        <v>526</v>
+      </c>
+      <c r="C318" t="s">
+        <v>15</v>
+      </c>
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>28044</v>
+      </c>
+      <c r="B319" t="s">
+        <v>527</v>
+      </c>
+      <c r="C319" t="s">
+        <v>15</v>
+      </c>
+      <c r="D319" t="s">
+        <v>528</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>28087</v>
+      </c>
+      <c r="B320" t="s">
+        <v>529</v>
+      </c>
+      <c r="C320" t="s">
+        <v>15</v>
+      </c>
+      <c r="D320" t="s">
+        <v>530</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>28102</v>
+      </c>
+      <c r="B321" t="s">
+        <v>531</v>
+      </c>
+      <c r="C321" t="s">
+        <v>15</v>
+      </c>
+      <c r="D321" t="s">
+        <v>532</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>28115</v>
+      </c>
+      <c r="B322" t="s">
+        <v>533</v>
+      </c>
+      <c r="C322" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>28227</v>
+      </c>
+      <c r="B323" t="s">
+        <v>534</v>
+      </c>
+      <c r="C323" t="s">
+        <v>15</v>
+      </c>
+      <c r="D323" t="s">
+        <v>535</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>28311</v>
+      </c>
+      <c r="B324" t="s">
+        <v>536</v>
+      </c>
+      <c r="C324" t="s">
+        <v>24</v>
+      </c>
+      <c r="D324" t="s">
+        <v>537</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>28727</v>
+      </c>
+      <c r="B325" t="s">
+        <v>538</v>
+      </c>
+      <c r="C325" t="s">
+        <v>24</v>
+      </c>
+      <c r="D325" t="s">
+        <v>539</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>28833</v>
+      </c>
+      <c r="B326" t="s">
+        <v>540</v>
+      </c>
+      <c r="C326" t="s">
+        <v>24</v>
+      </c>
+      <c r="D326" t="s">
+        <v>541</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>28957</v>
+      </c>
+      <c r="B327" t="s">
+        <v>542</v>
+      </c>
+      <c r="C327" t="s">
+        <v>24</v>
+      </c>
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>29027</v>
+      </c>
+      <c r="B328" t="s">
+        <v>543</v>
+      </c>
+      <c r="C328" t="s">
+        <v>24</v>
+      </c>
+      <c r="D328" t="s">
+        <v>544</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>29044</v>
+      </c>
+      <c r="B329" t="s">
+        <v>545</v>
+      </c>
+      <c r="C329" t="s">
+        <v>24</v>
+      </c>
+      <c r="D329" t="s">
+        <v>7</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>29171</v>
+      </c>
+      <c r="B330" t="s">
+        <v>546</v>
+      </c>
+      <c r="C330" t="s">
+        <v>24</v>
+      </c>
+      <c r="D330" t="s">
+        <v>547</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>29200</v>
+      </c>
+      <c r="B331" t="s">
+        <v>548</v>
+      </c>
+      <c r="C331" t="s">
+        <v>24</v>
+      </c>
+      <c r="D331" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>29209</v>
+      </c>
+      <c r="B332" t="s">
+        <v>549</v>
+      </c>
+      <c r="C332" t="s">
+        <v>24</v>
+      </c>
+      <c r="D332" t="s">
+        <v>7</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>29250</v>
+      </c>
+      <c r="B333" t="s">
+        <v>550</v>
+      </c>
+      <c r="C333" t="s">
+        <v>24</v>
+      </c>
+      <c r="D333" t="s">
+        <v>551</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>29362</v>
+      </c>
+      <c r="B334" t="s">
+        <v>552</v>
+      </c>
+      <c r="C334" t="s">
+        <v>24</v>
+      </c>
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>29509</v>
+      </c>
+      <c r="B335" t="s">
+        <v>553</v>
+      </c>
+      <c r="C335" t="s">
+        <v>24</v>
+      </c>
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>29520</v>
+      </c>
+      <c r="B336" t="s">
+        <v>554</v>
+      </c>
+      <c r="C336" t="s">
+        <v>24</v>
+      </c>
+      <c r="D336" t="s">
+        <v>555</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>29527</v>
+      </c>
+      <c r="B337" t="s">
+        <v>556</v>
+      </c>
+      <c r="C337" t="s">
+        <v>24</v>
+      </c>
+      <c r="D337" t="s">
+        <v>557</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>29627</v>
+      </c>
+      <c r="B338" t="s">
+        <v>558</v>
+      </c>
+      <c r="C338" t="s">
+        <v>559</v>
+      </c>
+      <c r="D338" t="s">
+        <v>560</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>29686</v>
+      </c>
+      <c r="B339" t="s">
+        <v>561</v>
+      </c>
+      <c r="C339" t="s">
+        <v>18</v>
+      </c>
+      <c r="D339" t="s">
+        <v>19</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>29711</v>
+      </c>
+      <c r="B340" t="s">
+        <v>562</v>
+      </c>
+      <c r="C340" t="s">
+        <v>18</v>
+      </c>
+      <c r="D340" t="s">
+        <v>45</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>29717</v>
+      </c>
+      <c r="B341" t="s">
+        <v>563</v>
+      </c>
+      <c r="C341" t="s">
+        <v>18</v>
+      </c>
+      <c r="D341" t="s">
+        <v>19</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>29719</v>
+      </c>
+      <c r="B342" t="s">
+        <v>564</v>
+      </c>
+      <c r="C342" t="s">
+        <v>18</v>
+      </c>
+      <c r="D342" t="s">
+        <v>19</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>29752</v>
+      </c>
+      <c r="B343" t="s">
+        <v>565</v>
+      </c>
+      <c r="C343" t="s">
+        <v>18</v>
+      </c>
+      <c r="D343" t="s">
+        <v>19</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>29779</v>
+      </c>
+      <c r="B344" t="s">
+        <v>566</v>
+      </c>
+      <c r="C344" t="s">
+        <v>18</v>
+      </c>
+      <c r="D344" t="s">
+        <v>19</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
         <v>29825</v>
       </c>
-      <c r="B236" t="s">
-        <v>385</v>
-      </c>
-      <c r="C236" t="s">
-        <v>6</v>
-      </c>
-      <c r="D236" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" t="n">
+      <c r="B345" t="s">
+        <v>567</v>
+      </c>
+      <c r="C345" t="s">
+        <v>18</v>
+      </c>
+      <c r="D345" t="s">
+        <v>19</v>
+      </c>
+      <c r="E345" t="n">
         <v>1</v>
       </c>
     </row>
